--- a/data/georgia_census/imereti/vani/age_dependency.xlsx
+++ b/data/georgia_census/imereti/vani/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65000D5E-9109-4C6F-B21A-EFD5D79CAC63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021B7DB0-81FB-433F-931D-D4A18E014F0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D639BE6E-C495-42D4-831B-458303ABFE9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{131F6762-D9B0-449D-A643-3DD2E72E216E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0C43F2C-783B-464E-B4E9-DC7107792E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD3337B-3E60-4FCD-9016-654D9CEC5262}"/>
 </file>